--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value425.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value425.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9378292794236158</v>
+        <v>1.320918321609497</v>
       </c>
       <c r="B1">
-        <v>1.379264083736014</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>2.341445154326604</v>
+        <v>3.240891695022583</v>
       </c>
       <c r="D1">
-        <v>2.645843792806764</v>
+        <v>1.611703395843506</v>
       </c>
       <c r="E1">
-        <v>1.706738277657717</v>
+        <v>1.188177466392517</v>
       </c>
     </row>
   </sheetData>
